--- a/참고자료/00.테이블명세 양식.xlsx
+++ b/참고자료/00.테이블명세 양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\sql\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -222,11 +222,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nNUMBER(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,6 +552,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,9 +571,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1575,23 +1575,23 @@
       <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="12">
         <v>44026</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="15" t="s">
@@ -1600,19 +1600,19 @@
       <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
@@ -1753,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -1799,7 +1799,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
